--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Fall 2024/Maryland Collaboration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C68A0D8-68D3-CD4E-BB34-62C5AD599D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7009A-502F-664F-BA4A-8284CD8DA4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20620" windowHeight="20380" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="239">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -508,9 +508,6 @@
     <t xml:space="preserve">(1) 3 second image generation (2) Deep learning via residual UNET (3) good PSNR, Housnfield Unit, and MAE scores. </t>
   </si>
   <si>
-    <t>Image2StyleGAN: How to Embed Images Into the StyleGAN Latent Space?</t>
-  </si>
-  <si>
     <t>Rameen Abdal et al.</t>
   </si>
   <si>
@@ -544,9 +541,6 @@
     <t>(1) StyleGAN encoder generator discriminator training framework for GAN inversion. (2) Effectinve Image to image translation tasks. (3) More efficient than state of the art single image inversion techniques.</t>
   </si>
   <si>
-    <t>Encoding in Style: A StyleGAN Encoder for Image-to-Image Translation</t>
-  </si>
-  <si>
     <t>Elad Richardson et al.</t>
   </si>
   <si>
@@ -703,9 +697,6 @@
     <t xml:space="preserve">Image Translation/ Bias Detection </t>
   </si>
   <si>
-    <t>StyleCLIP: Text-Driven Manipulation of StyleGAN Imagery</t>
-  </si>
-  <si>
     <t>Or Patashnik</t>
   </si>
   <si>
@@ -740,9 +731,6 @@
     <t>(1) Text-guided latent optimization, where CLIP model loss is used to guided image editing. (2) latent residual mapper, trained for a specific text prompt. Dedicated optimization for each image-text pair. (2b) Given a starting point in the latent space, the mapper learns a single direction in the latent space for image editing. (3) Method for mapping multiple text promtps into a global direction in stylegans style space.  (4) Images were encoded using encoding for editing (e4e) styleGAN model (autoencoder) with pretrained ArcFace network (face recognition model) to help speed up training. (5) They take two text embeddings (e.g. a car and a sports car), then take the normalized difference as the target direction.</t>
   </si>
   <si>
-    <t>BiomedCLIP: a multimodal biomedical foundation model pretrained from fifteen million scientific image-text pairs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sheng Zhang et al., </t>
   </si>
   <si>
@@ -761,9 +749,6 @@
     <t xml:space="preserve">Vision-Language Models </t>
   </si>
   <si>
-    <t>LLaVA-Med: Training a Large Language-and-Vision Assitant for Biomedicine in One Day</t>
-  </si>
-  <si>
     <t>Chunyuan Li et al.,</t>
   </si>
   <si>
@@ -779,10 +764,270 @@
     <t>(1) Biomedical instruction-following data: a framework for curating a large diverse (image, instruction, output) dataset. (2) LLaVA-Med: method for adapting LLaVA to the medical domain. (3) Simply asked LLaVA to generate discriptions of an image (2) Did not train LLaVA weights, just optimized its project matrix (image-text matrix)</t>
   </si>
   <si>
-    <t>Image2StyleGAN++: How to Edit the Embedded Images?</t>
-  </si>
-  <si>
     <t>https://openaccess.thecvf.com/content_CVPR_2020/html/Abdal_Image2StyleGAN_How_to_Edit_the_Embedded_Images_CVPR_2020_paper.html</t>
+  </si>
+  <si>
+    <t>(1) Noise optimization to restore high frequency features in images, improviing image reconstruction quality. Increasing PSNR scores (2) Extended latent space embedding to enable local embeddings. (3) Combined embeddings iwith activation tensor manipulation for high quality local edits/ global semantic edits</t>
+  </si>
+  <si>
+    <t>This paper improves previously proposed Image2StyleGAN framework for embedding and editing real-images. Overall this paper is generates higher resolution reconstructions and enables more fine-grain local and global edits to real-world images. The papers primary goal is to improve the embedding quality of Image2StyleGAN.</t>
+  </si>
+  <si>
+    <t>Lewei Yao et al.</t>
+  </si>
+  <si>
+    <t>ICLR</t>
+  </si>
+  <si>
+    <t>https://openreview.net/forum?id=cpDhcsEDC2</t>
+  </si>
+  <si>
+    <t>This paper is an improvement of CLIP, a popular Vision-Language foundation model which leverages the power of contrastive learning. This paper aims to improve the effiviency of large-scale VLP training and inference while maximizing image and textual simiarities.</t>
+  </si>
+  <si>
+    <t>(1) Introduces large-scale fine-grained interactive Language-Image Pre-training (FILIP) to achieve finer-level alignment through cross-modal late interaction. (2) Introduce FILIP300M, a dataset for for vistion-lanugage pre-training which consists of 300 M image-text pairs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FILIP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fine-Grained Interactive Language Image Pre-Training</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Image2StyleGAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: How to Embed Images Into the StyleGAN Latent Space?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Image2StyleGAN++:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> How to Edit the Embedded Images?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Encoding in Style:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> A StyleGAN Encoder for Image-to-Image Translation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">StyleCLIP: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text-Driven Manipulation of StyleGAN Imagery</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BiomedCLIP:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a multimodal biomedical foundation model pretrained from fifteen million scientific image-text pairs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LLaVA-Med:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Training a Large Language-and-Vision Assitant for Biomedicine in One Day</t>
+    </r>
+  </si>
+  <si>
+    <t>Equality of Opportunity in Supervised Learning</t>
+  </si>
+  <si>
+    <t>Moritz Hardt et al.</t>
+  </si>
+  <si>
+    <t>NeuRIPS</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1610.02413</t>
+  </si>
+  <si>
+    <t>This paper introduces the concept of equality of opportunity (EO), a metric used to measure fairness in true positive rates across different subrgoups. Specifically, the propose a criterion for discrimination against a specified sensitive attribute in supervised learning, which could be extended to large scale bias mitigation techniques.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Show how to adjust any learned classifier to remove discrimination. (2) Framework to improve incentives by shifting attention and cost of poor classification from minority population or subgroups. (3) This paper also discuss other naïve bias/ fairness detection metrics such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>demographic disparity and equalized odds.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bias Mitigation</t>
+  </si>
+  <si>
+    <t>Counterfactual contrastive learning: robust representation via causal image synthesis</t>
+  </si>
+  <si>
+    <t>Melanie Roshewitz et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2403.09605</t>
+  </si>
+  <si>
+    <t>Bias Mitigation/ Data Augmentation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(1) Introduces a novel data augmentation strategy for medical imaging datasets called CF-SimCLR, which based on previously proposed contrastive learning framework, SimCLR. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Limitations: (1) This paper is focused on improving the robustness of counterfactual generation in the case of image acquisition shifts (e.g. images acquired from different scanners). (2) Limited application, does not discuss impact on disease classification (conclusion say they will expand CF-SimCLR to other domain shifts and model fairness). (3) Similar overhead cost to our stylegan approach (1 M images in 7 hours)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mitigating attribute amplification in counterfactual image generation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This paper introduces CF-SimCLR, a counterfactual contrastive learning approach which aids in positive pari creation.  Their new data augmentation strategy is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>focused on preserving semantic infromation while destroying domain-specific information. Improving model generalizability accross multiple domain shifts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CF-SimCLR was evaluated on both mammography  and chest x-ray datasets. </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1636,10 +1881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1786,11 +2031,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C6" s="3">
         <v>2019</v>
@@ -1799,24 +2044,24 @@
         <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>215</v>
+    </row>
+    <row r="7" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>220</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="3">
         <v>2020</v>
@@ -1825,41 +2070,76 @@
         <v>60</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>216</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="C9" s="3">
         <v>2020</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C10" s="3">
         <v>2021</v>
@@ -1868,24 +2148,24 @@
         <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C11" s="3">
         <v>2024</v>
@@ -1894,13 +2174,13 @@
         <v>97</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>53</v>
@@ -1908,10 +2188,10 @@
     </row>
     <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3">
         <v>2024</v>
@@ -1920,39 +2200,39 @@
         <v>95</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C13" s="3">
         <v>2020</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>169</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>53</v>
@@ -1960,88 +2240,88 @@
     </row>
     <row r="14" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" s="3">
         <v>2021</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="170" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="3">
         <v>2022</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="H15" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="3">
         <v>2018</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>181</v>
-      </c>
       <c r="H16" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" s="3">
         <v>2023</v>
@@ -2050,24 +2330,24 @@
         <v>60</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="340" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="3">
         <v>2021</v>
@@ -2076,24 +2356,24 @@
         <v>59</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="289" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="C19" s="3">
         <v>2021</v>
@@ -2102,137 +2382,194 @@
         <v>59</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="255" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>202</v>
+      <c r="A20" s="6" t="s">
+        <v>223</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C20" s="3">
         <v>2023</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="C21" s="3">
         <v>2023</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C38" s="3">
         <v>2022</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C39" s="3">
         <v>2022</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C40" s="3">
         <v>2023</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{795DA495-BD31-BB44-800A-26BF403047C7}"/>
-    <hyperlink ref="E25" r:id="rId2" xr:uid="{66813249-3A4C-B845-B070-64D80E8152AB}"/>
-    <hyperlink ref="E26" r:id="rId3" xr:uid="{AC06F69E-14AA-3349-B104-0FE4AEF36BDD}"/>
-    <hyperlink ref="E27" r:id="rId4" xr:uid="{E7F3E578-CFA8-614F-8F8A-05DC2D699FAC}"/>
+    <hyperlink ref="E38" r:id="rId2" xr:uid="{66813249-3A4C-B845-B070-64D80E8152AB}"/>
+    <hyperlink ref="E39" r:id="rId3" xr:uid="{AC06F69E-14AA-3349-B104-0FE4AEF36BDD}"/>
+    <hyperlink ref="E40" r:id="rId4" xr:uid="{E7F3E578-CFA8-614F-8F8A-05DC2D699FAC}"/>
     <hyperlink ref="E3" r:id="rId5" xr:uid="{263A9E3F-DCD7-BE42-B56F-774869D41EEF}"/>
     <hyperlink ref="E4" r:id="rId6" xr:uid="{CABB3D64-54EC-2E4B-9640-248225BDC11F}"/>
     <hyperlink ref="E5" r:id="rId7" xr:uid="{7976CBA6-0A6B-C541-A4AE-A5050F91C6A6}"/>
@@ -2251,6 +2588,9 @@
     <hyperlink ref="E20" r:id="rId20" xr:uid="{2FBE0895-CDCE-D347-A7B9-1F24051028A9}"/>
     <hyperlink ref="E21" r:id="rId21" xr:uid="{1FE8CED5-FF27-344F-9887-08597FA6ED12}"/>
     <hyperlink ref="E7" r:id="rId22" xr:uid="{916E5892-7C5D-8E4B-B0E6-9709191E56FC}"/>
+    <hyperlink ref="E8" r:id="rId23" xr:uid="{44F116A2-5657-634E-BE6A-0A79BEF5DA14}"/>
+    <hyperlink ref="E22" r:id="rId24" xr:uid="{CB424513-FC41-424D-AAA2-E3209FB3A6C8}"/>
+    <hyperlink ref="E23" r:id="rId25" xr:uid="{5833EA3A-86DB-E746-9088-625E6CD42AF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7009A-502F-664F-BA4A-8284CD8DA4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6D1D2A-57A9-7746-B41C-50481E1F9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20620" windowHeight="20380" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="243">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -1028,6 +1028,18 @@
       </rPr>
       <t xml:space="preserve"> CF-SimCLR was evaluated on both mammography  and chest x-ray datasets. </t>
     </r>
+  </si>
+  <si>
+    <t>Tian Xia et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2403.09422</t>
+  </si>
+  <si>
+    <t>This paper disusses the limiations of generating counter factual images using auxiliary classifiers (e.g. linear SVM, regression,  etc..). Specifically, their roles in attribute amplification, where unrelated attributes are affected during the interevention. This problem leads to biases across protected characteristics and diisease status. Instead of hard labels (e.g. male to femal interpolation) they propose a novel method for soft counterfactual fine-tuning to mitigate this issue. Claim is that their method substantially reduces the amplification of bias throughout medical imaging datasets</t>
+  </si>
+  <si>
+    <t>(1) Discusses the limitations of hard counterfactual training. (2) Performed extensive experiments on MIMIC-CXR dataset with its primary focus on  the disease label of pleural effusion. Limitations: (1) This paper suggest that some limiting changes on unrelated attributes reduces bias' but fails to detail why they are unrelated (mostly hypothetical). (2) This paper does not address the CXR classifiers risk for adversarial attacks. (3) Concludes with soft-CFT as a data augmentation method but does not discuss bias of CXR datasets due to imbalanced data distributions (Soft-CFT would at most double the minority class), where our approach mitigates bias and affects of adversarial attacks by increasing sample size by 2x, 3x, or even 4x.</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1896,7 @@
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2501,9 +2513,30 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="306" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>237</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2591,6 +2624,7 @@
     <hyperlink ref="E8" r:id="rId23" xr:uid="{44F116A2-5657-634E-BE6A-0A79BEF5DA14}"/>
     <hyperlink ref="E22" r:id="rId24" xr:uid="{CB424513-FC41-424D-AAA2-E3209FB3A6C8}"/>
     <hyperlink ref="E23" r:id="rId25" xr:uid="{5833EA3A-86DB-E746-9088-625E6CD42AF1}"/>
+    <hyperlink ref="E24" r:id="rId26" xr:uid="{3AFFB290-C1F7-5F4E-B244-8B33EDC805E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6D1D2A-57A9-7746-B41C-50481E1F9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC12471-050F-9D4E-9DE9-70B4D7C7C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC12471-050F-9D4E-9DE9-70B4D7C7C682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D98F2-1105-174C-978E-065F84617D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="250">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -1040,6 +1040,27 @@
   </si>
   <si>
     <t>(1) Discusses the limitations of hard counterfactual training. (2) Performed extensive experiments on MIMIC-CXR dataset with its primary focus on  the disease label of pleural effusion. Limitations: (1) This paper suggest that some limiting changes on unrelated attributes reduces bias' but fails to detail why they are unrelated (mostly hypothetical). (2) This paper does not address the CXR classifiers risk for adversarial attacks. (3) Concludes with soft-CFT as a data augmentation method but does not discuss bias of CXR datasets due to imbalanced data distributions (Soft-CFT would at most double the minority class), where our approach mitigates bias and affects of adversarial attacks by increasing sample size by 2x, 3x, or even 4x.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counterfactual Image Editing </t>
+  </si>
+  <si>
+    <t>Yushu Pan et al.</t>
+  </si>
+  <si>
+    <t>https://openreview.net/forum?id=OXzkw7vFIO&amp;referrer=%5Bthe%20profile%20of%20Elias%20Bareinboim%5D(%2Fprofile%3Fid%3D~Elias_Bareinboim2)</t>
+  </si>
+  <si>
+    <t>Have You Poisoned My Data? Defending Neural Networks against Data Poisoning</t>
+  </si>
+  <si>
+    <t>Fabio De Gaspari et al.</t>
+  </si>
+  <si>
+    <t>ESORICS</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2403.13523</t>
   </si>
 </sst>
 </file>
@@ -1895,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2537,6 +2558,40 @@
       </c>
       <c r="H24" s="3" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2625,6 +2680,8 @@
     <hyperlink ref="E22" r:id="rId24" xr:uid="{CB424513-FC41-424D-AAA2-E3209FB3A6C8}"/>
     <hyperlink ref="E23" r:id="rId25" xr:uid="{5833EA3A-86DB-E746-9088-625E6CD42AF1}"/>
     <hyperlink ref="E24" r:id="rId26" xr:uid="{3AFFB290-C1F7-5F4E-B244-8B33EDC805E9}"/>
+    <hyperlink ref="E25" r:id="rId27" xr:uid="{F4B3227E-C0BB-F041-8E3D-AF69D4257333}"/>
+    <hyperlink ref="E26" r:id="rId28" xr:uid="{3FFD2720-E2F3-D44F-B20D-66DCE42054B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D98F2-1105-174C-978E-065F84617D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344321B8-59C8-1E47-BC85-C1D0D92C58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20380" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="272">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -1061,6 +1061,143 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/2403.13523</t>
+  </si>
+  <si>
+    <t>Emegining Properties in Self-Supervised vision Transformers (DINO Paper)</t>
+  </si>
+  <si>
+    <t>Mathilde Caron et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2104.14294</t>
+  </si>
+  <si>
+    <t>MIMIC-CXR, a de-identified publicly available database of chest radiographs with free-text reports (MIMIC_CXR Dataset)</t>
+  </si>
+  <si>
+    <t>Algorithmic Fairness in Lesion Classification by Mitigating Class Imbalance and Skin Tone Bias</t>
+  </si>
+  <si>
+    <t>Faizanuddin Ansari et al.</t>
+  </si>
+  <si>
+    <t>https://papers.miccai.org/miccai-2024/059-Paper2178.html</t>
+  </si>
+  <si>
+    <t>CheXplaining in Style: Counterfactual Explanations for Chest X-rays using StyleGAN</t>
+  </si>
+  <si>
+    <t>Matan Atad.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2207.07553</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This paper introduces a fully convolutional masked autoencoder framework and a new Global Response Normalization (GRN) layer that can be added to the ConvNeXt architecture to enhance inter-channel feature competition. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ConvNeXt are considered modern ConvNet architectures (modern CNNs).  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Their model scored 76.7% top-1 accuracy on ImageNet, to a 650M Huge model that achieves a state-of-theart 88.9% accuracy using only public training data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This paper tackles several issues. (1) Leverage MAE architectures for downstream tasks is not trivial.  MAE has a specific encode-decoder design that is optimized for the sequence processing capabilities of transformers, which allows the compute-heavy encoder to focus on visible patches and thus reduce the pre-training cost. (2) A potential issue of feature collapse at the MLP layer when training ConvNeXt directly on masked input. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In response they added a  Global Response Normalization layer to enhance inter-channel feature competition.</t>
+    </r>
+  </si>
+  <si>
+    <t>ConvNeXt V2: Co-designing and Scaling ConvNets with Masked Autoencoders</t>
+  </si>
+  <si>
+    <t>Sanghyun Woo et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2301.00808</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TURBOFUZZLLM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Turbocharging Mutation-based Fuzzing for Effectively Jailbreaking Large Language Models in Practice</t>
+    </r>
+  </si>
+  <si>
+    <t>Aman Goel et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2502.18504</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">FuzzLLM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A Novel and Universal Fuzzing Framework for Proactively Discovering Jailbreak Vulnerabilities in Large Language Models</t>
+    </r>
+  </si>
+  <si>
+    <t>Dongyu Yao et al.</t>
+  </si>
+  <si>
+    <t>ICASSP</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/10448041?denied=</t>
   </si>
 </sst>
 </file>
@@ -1488,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0739E5-9D2D-3840-A96D-0B4389A2B83F}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A8" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1794,6 +1931,23 @@
         <v>130</v>
       </c>
     </row>
+    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
     <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>86</v>
@@ -1907,6 +2061,7 @@
     <hyperlink ref="E3" r:id="rId13" xr:uid="{6EBBF2C7-9C86-534F-A9CC-1461A7688687}"/>
     <hyperlink ref="E2" r:id="rId14" xr:uid="{30C26C86-7E56-4943-8A7D-3BB89D4D2DDD}"/>
     <hyperlink ref="E11" r:id="rId15" xr:uid="{F9D99B05-6B59-F34A-8603-32274C3F4A2D}"/>
+    <hyperlink ref="E12" r:id="rId16" xr:uid="{C5E8F719-4D2D-A749-8B85-EC2EC6FABE86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1916,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2560,38 +2715,134 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="221" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2025</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C31" s="3">
         <v>2024</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C32" s="3">
         <v>2024</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2680,8 +2931,13 @@
     <hyperlink ref="E22" r:id="rId24" xr:uid="{CB424513-FC41-424D-AAA2-E3209FB3A6C8}"/>
     <hyperlink ref="E23" r:id="rId25" xr:uid="{5833EA3A-86DB-E746-9088-625E6CD42AF1}"/>
     <hyperlink ref="E24" r:id="rId26" xr:uid="{3AFFB290-C1F7-5F4E-B244-8B33EDC805E9}"/>
-    <hyperlink ref="E25" r:id="rId27" xr:uid="{F4B3227E-C0BB-F041-8E3D-AF69D4257333}"/>
-    <hyperlink ref="E26" r:id="rId28" xr:uid="{3FFD2720-E2F3-D44F-B20D-66DCE42054B3}"/>
+    <hyperlink ref="E31" r:id="rId27" xr:uid="{F4B3227E-C0BB-F041-8E3D-AF69D4257333}"/>
+    <hyperlink ref="E32" r:id="rId28" xr:uid="{3FFD2720-E2F3-D44F-B20D-66DCE42054B3}"/>
+    <hyperlink ref="E33" r:id="rId29" xr:uid="{4A48CE80-D16F-2A4A-8153-CEF41EBF4F81}"/>
+    <hyperlink ref="E35" r:id="rId30" xr:uid="{0DBD99FC-278A-504D-920E-9D94804FCA0F}"/>
+    <hyperlink ref="E25" r:id="rId31" xr:uid="{73C97F82-9250-3645-8804-75424EABAF3D}"/>
+    <hyperlink ref="E26" r:id="rId32" xr:uid="{1FF8CA26-E284-5241-9062-F9C797A71FA2}"/>
+    <hyperlink ref="E27" r:id="rId33" xr:uid="{0AB4E0C4-E072-0A4F-ADFD-8C9ED96C56C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344321B8-59C8-1E47-BC85-C1D0D92C58E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B46F6-326A-3549-992B-F3A0CAB22D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17080" windowHeight="20400" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -1198,6 +1198,15 @@
   </si>
   <si>
     <t>https://ieeexplore.ieee.org/document/10448041?denied=</t>
+  </si>
+  <si>
+    <t>Focused on jailbreak vulnerabilities in LLMs, this paper creates a framework called FuzzLLM to proactively test and discover jailbreak vulnerabilities in LLMs.  They introduce templates (which capture structural integrity) and contraints (key features of the jailbreak) to enable efficient testing with reduced manual efforts.</t>
+  </si>
+  <si>
+    <t>(1) FuzzLLM Framework (2) adoption of fuzzing whic employ black-box fuzzing for insightful asssessments without accessing the mode's intricate details (3) Prompt generation strategy and (4) comprehensive evaluation eight distinct LLMs</t>
+  </si>
+  <si>
+    <t>Jailbreaking/ Security</t>
   </si>
 </sst>
 </file>
@@ -2071,8 +2080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2754,8 +2763,11 @@
       <c r="E26" s="4" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="H26" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="136" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>268</v>
       </c>
@@ -2771,6 +2783,16 @@
       <c r="E27" s="4" t="s">
         <v>271</v>
       </c>
+      <c r="F27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="I27" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76B46F6-326A-3549-992B-F3A0CAB22D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC596C03-7529-214A-B2A0-DF8943C4C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17080" windowHeight="20400" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28560" windowHeight="20380" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
     <sheet name="Computer Vision" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="281">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -493,9 +493,6 @@
     <t>CT synthesis from MRI images based on deep learning methods for MRI-only radiotherapy</t>
   </si>
   <si>
-    <t>Yafen Li</t>
-  </si>
-  <si>
     <t>IEEE ICMIPE</t>
   </si>
   <si>
@@ -1087,9 +1084,6 @@
     <t>CheXplaining in Style: Counterfactual Explanations for Chest X-rays using StyleGAN</t>
   </si>
   <si>
-    <t>Matan Atad.</t>
-  </si>
-  <si>
     <t>https://arxiv.org/abs/2207.07553</t>
   </si>
   <si>
@@ -1207,6 +1201,30 @@
   </si>
   <si>
     <t>Jailbreaking/ Security</t>
+  </si>
+  <si>
+    <t>Latent Drifting in Diffusion Models for Counterfactual Medical Image Synthesis</t>
+  </si>
+  <si>
+    <t>Yousef Yeganeh et al.</t>
+  </si>
+  <si>
+    <t>Matan Atad et al.,</t>
+  </si>
+  <si>
+    <t>Yafen Li et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2412.20651</t>
+  </si>
+  <si>
+    <t>Bilinear Attention Networks</t>
+  </si>
+  <si>
+    <t>Jin-Hwa Kim et al.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1805.07932</t>
   </si>
 </sst>
 </file>
@@ -1277,11 +1295,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1290,9 +1305,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1634,422 +1646,438 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0739E5-9D2D-3840-A96D-0B4389A2B83F}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A10" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" style="3" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="28" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="28" style="5" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="40" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28" style="2" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="40" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2022</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="182" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2019</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="187" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2024</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2024</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="187" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>2024</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="187" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2023</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>2024</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>2024</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="221" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2024</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C12" s="3">
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="2">
         <v>2022</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="D31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2">
         <v>2024</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2023</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="H33" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2071,6 +2099,7 @@
     <hyperlink ref="E2" r:id="rId14" xr:uid="{30C26C86-7E56-4943-8A7D-3BB89D4D2DDD}"/>
     <hyperlink ref="E11" r:id="rId15" xr:uid="{F9D99B05-6B59-F34A-8603-32274C3F4A2D}"/>
     <hyperlink ref="E12" r:id="rId16" xr:uid="{C5E8F719-4D2D-A749-8B85-EC2EC6FABE86}"/>
+    <hyperlink ref="E13" r:id="rId17" xr:uid="{3E0DE275-6E2D-7544-A00B-67EF095EFADF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2080,848 +2109,865 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="75" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="32" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29" style="3" customWidth="1"/>
-    <col min="6" max="6" width="39" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.1640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="36.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>2023</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2023</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2023</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2022</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2019</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="340" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2016</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2023</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="E25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="2">
         <v>2021</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="187" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="D33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="2">
         <v>2024</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
         <v>2022</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2018</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="E39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2">
         <v>2023</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="340" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="289" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C19" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="255" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="255" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="306" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="221" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2023</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2025</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2021</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="68" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="3">
-        <v>2022</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2022</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2023</v>
-      </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2960,6 +3006,7 @@
     <hyperlink ref="E25" r:id="rId31" xr:uid="{73C97F82-9250-3645-8804-75424EABAF3D}"/>
     <hyperlink ref="E26" r:id="rId32" xr:uid="{1FF8CA26-E284-5241-9062-F9C797A71FA2}"/>
     <hyperlink ref="E27" r:id="rId33" xr:uid="{0AB4E0C4-E072-0A4F-ADFD-8C9ED96C56C4}"/>
+    <hyperlink ref="E28" r:id="rId34" xr:uid="{CC66DD93-4F16-A346-9639-CB723A4F5EAB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC596C03-7529-214A-B2A0-DF8943C4C1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366E1D8-6E2E-B542-BB6C-1F6642CA187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28560" windowHeight="20380" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="289">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -1225,6 +1225,30 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/1805.07932</t>
+  </si>
+  <si>
+    <t>Transformers without Normalization</t>
+  </si>
+  <si>
+    <t>Jiachen Zhu et al.</t>
+  </si>
+  <si>
+    <t>https://jiachenzhu.github.io/DyT/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In attempts to introduce a more efficient attention mechanism, this paper proposes bilinear attention networks which are features </t>
+  </si>
+  <si>
+    <t>(1) low-rank bilinear pooling for combining questions vector and multi-channel input image. (2) Bilinear attention network which improves upon previously used bilinear models.</t>
+  </si>
+  <si>
+    <t>Architecture</t>
+  </si>
+  <si>
+    <t>Jiachen Zhu et al., challenges pre-existing normalization methods employed in state-of-the art attention-based deep learning models. Specifically, they demonstrate how layer normalization layers exhibit similar behaviors as tanh functions. This papers proves this theory and demonstrates that we can achieve similar performance  accross numerous deep learning models (e.g. DiT, ViT, and ConvNeXt) by replacing  LN layers with proposed Dynamic tanh (DyT)layers. They also showcase that DyT decreases LLaMA 7B inference (7.8%) and training (8.2%) times.</t>
+  </si>
+  <si>
+    <t>(1) Discussed the purpose of layer normalization and their visual Tanh-like behavior. (2) provided pseudocode implementations for DyT. (3)Evaluated the efficiency of DyT in comparison to root mean square normalization layers. (4) Provided a series of ablation studies (i.e. replacing tanh with hard tanh and sigmoid)</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0739E5-9D2D-3840-A96D-0B4389A2B83F}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="171" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -2109,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="75" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2823,7 +2847,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>278</v>
       </c>
@@ -2838,6 +2862,41 @@
       </c>
       <c r="E28" s="3" t="s">
         <v>280</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
@@ -3007,6 +3066,7 @@
     <hyperlink ref="E26" r:id="rId32" xr:uid="{1FF8CA26-E284-5241-9062-F9C797A71FA2}"/>
     <hyperlink ref="E27" r:id="rId33" xr:uid="{0AB4E0C4-E072-0A4F-ADFD-8C9ED96C56C4}"/>
     <hyperlink ref="E28" r:id="rId34" xr:uid="{CC66DD93-4F16-A346-9639-CB723A4F5EAB}"/>
+    <hyperlink ref="E29" r:id="rId35" xr:uid="{DE665102-F824-CE4C-A630-C4C4D7034EDB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiezy/Desktop/Spring 2025/Computer-Vision-Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8366E1D8-6E2E-B542-BB6C-1F6642CA187F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27072395-56EE-B647-A294-9FDC24125B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
+    <workbookView xWindow="35260" yWindow="1780" windowWidth="20580" windowHeight="25520" activeTab="1" xr2:uid="{DFDC9FC7-5844-914B-A846-75D92E17BE5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Medical" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="295">
   <si>
     <t>AUTHOR</t>
   </si>
@@ -1249,13 +1249,50 @@
   </si>
   <si>
     <t>(1) Discussed the purpose of layer normalization and their visual Tanh-like behavior. (2) provided pseudocode implementations for DyT. (3)Evaluated the efficiency of DyT in comparison to root mean square normalization layers. (4) Provided a series of ablation studies (i.e. replacing tanh with hard tanh and sigmoid)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ByteLatentTransformer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: PatchesScaleBetter ThanTokens</t>
+    </r>
+  </si>
+  <si>
+    <t>Artidoro Pagnoni et al.</t>
+  </si>
+  <si>
+    <t>https://ai.meta.com/research/publications/byte-latent-transformer-patches-scale-better-than-tokens/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper introduces byte latent transformer (BLT) that improves the scaling trends of LLMs. Operating in the byte space is costly due to long sequence lengths. Previous methods have explored more efficient attention mechanisms and remove attention all together. BLT is dynamic and learnable method for grouping bytes  into patchs (a patch-based approach). One unique difference between this method and other patch methods is that BLT has no fixed size or vocabulary for patches. </t>
+  </si>
+  <si>
+    <t>(1) BLT, byte latent LLM architecture that dynamically allocates compute to improve FLOP (floating point operations per seconds) (2) Unlocking a new dimension of scaling LLMs . (3) Authors demonstrate imporved robustness of BLT models to input noise and awareness of sub-word aspects</t>
+  </si>
+  <si>
+    <t>LLMs/ Architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1674,7 +1711,7 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="2" customWidth="1"/>
@@ -1688,7 +1725,7 @@
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1714,7 +1751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="129" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
@@ -1740,7 +1777,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="182" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>111</v>
       </c>
@@ -1766,7 +1803,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="187">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1795,7 +1832,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="204">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1821,7 +1858,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="187">
       <c r="A6" s="2" t="s">
         <v>82</v>
       </c>
@@ -1847,7 +1884,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="187" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="187">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1873,7 +1910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="136">
       <c r="A8" s="2" t="s">
         <v>70</v>
       </c>
@@ -1899,7 +1936,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="204">
       <c r="A9" s="2" t="s">
         <v>75</v>
       </c>
@@ -1925,7 +1962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="221">
       <c r="A10" s="2" t="s">
         <v>98</v>
       </c>
@@ -1954,7 +1991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="136">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -1977,7 +2014,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="68">
       <c r="A12" s="2" t="s">
         <v>256</v>
       </c>
@@ -1994,7 +2031,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="51">
       <c r="A13" s="2" t="s">
         <v>273</v>
       </c>
@@ -2011,7 +2048,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="51">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -2028,7 +2065,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="68">
       <c r="A31" s="2" t="s">
         <v>90</v>
       </c>
@@ -2045,7 +2082,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="68">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="102">
       <c r="A33" s="2" t="s">
         <v>13</v>
       </c>
@@ -2085,7 +2122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="102">
       <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
@@ -2133,11 +2170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A226E7A5-1AE7-2D4A-8771-BC3D7E1CAFD3}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="67" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="38" zoomScaleNormal="67" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="32" style="2" customWidth="1"/>
@@ -2150,7 +2187,7 @@
     <col min="9" max="9" width="43.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="28">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2176,7 +2213,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="102">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2202,7 +2239,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="102">
       <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
@@ -2228,7 +2265,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="119">
       <c r="A4" s="2" t="s">
         <v>65</v>
       </c>
@@ -2254,7 +2291,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="102">
       <c r="A5" s="2" t="s">
         <v>93</v>
       </c>
@@ -2280,7 +2317,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="119">
       <c r="A6" s="4" t="s">
         <v>218</v>
       </c>
@@ -2306,7 +2343,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="136">
       <c r="A7" s="4" t="s">
         <v>219</v>
       </c>
@@ -2332,7 +2369,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="119">
       <c r="A8" s="4" t="s">
         <v>217</v>
       </c>
@@ -2358,7 +2395,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="136">
       <c r="A9" s="2" t="s">
         <v>135</v>
       </c>
@@ -2384,7 +2421,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="136">
       <c r="A10" s="4" t="s">
         <v>220</v>
       </c>
@@ -2410,7 +2447,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="187" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="187">
       <c r="A11" s="2" t="s">
         <v>145</v>
       </c>
@@ -2436,7 +2473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="102">
       <c r="A12" s="2" t="s">
         <v>150</v>
       </c>
@@ -2462,7 +2499,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="136">
       <c r="A13" s="2" t="s">
         <v>156</v>
       </c>
@@ -2488,7 +2525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="170">
       <c r="A14" s="2" t="s">
         <v>180</v>
       </c>
@@ -2514,7 +2551,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="170" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="170">
       <c r="A15" s="2" t="s">
         <v>157</v>
       </c>
@@ -2540,7 +2577,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="153">
       <c r="A16" s="2" t="s">
         <v>179</v>
       </c>
@@ -2566,7 +2603,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="204">
       <c r="A17" s="2" t="s">
         <v>181</v>
       </c>
@@ -2592,7 +2629,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="340" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="340">
       <c r="A18" s="2" t="s">
         <v>187</v>
       </c>
@@ -2618,7 +2655,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="289" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="289">
       <c r="A19" s="4" t="s">
         <v>221</v>
       </c>
@@ -2647,7 +2684,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="255">
       <c r="A20" s="4" t="s">
         <v>222</v>
       </c>
@@ -2673,7 +2710,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="136">
       <c r="A21" s="4" t="s">
         <v>223</v>
       </c>
@@ -2699,7 +2736,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="136">
       <c r="A22" s="2" t="s">
         <v>224</v>
       </c>
@@ -2725,7 +2762,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="255" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="255">
       <c r="A23" s="2" t="s">
         <v>231</v>
       </c>
@@ -2751,7 +2788,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="306" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="306">
       <c r="A24" s="2" t="s">
         <v>236</v>
       </c>
@@ -2777,7 +2814,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="221">
       <c r="A25" s="2" t="s">
         <v>260</v>
       </c>
@@ -2800,7 +2837,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="85">
       <c r="A26" s="4" t="s">
         <v>263</v>
       </c>
@@ -2820,7 +2857,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="136">
       <c r="A27" s="4" t="s">
         <v>266</v>
       </c>
@@ -2847,7 +2884,7 @@
       </c>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>278</v>
       </c>
@@ -2873,7 +2910,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="221" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="221">
       <c r="A29" s="2" t="s">
         <v>281</v>
       </c>
@@ -2899,7 +2936,33 @@
         <v>286</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="187">
+      <c r="A30" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="85">
       <c r="A31" s="2" t="s">
         <v>242</v>
       </c>
@@ -2916,7 +2979,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="51">
       <c r="A32" s="2" t="s">
         <v>245</v>
       </c>
@@ -2933,7 +2996,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="51">
       <c r="A33" s="2" t="s">
         <v>249</v>
       </c>
@@ -2950,12 +3013,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="85">
       <c r="A34" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="68">
       <c r="A35" s="2" t="s">
         <v>253</v>
       </c>
@@ -2972,7 +3035,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="34">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -2989,7 +3052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="34">
       <c r="A39" s="4" t="s">
         <v>21</v>
       </c>
@@ -3003,7 +3066,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="102">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -3017,12 +3080,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="17">
       <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="51">
       <c r="A42" s="2" t="s">
         <v>106</v>
       </c>
@@ -3067,6 +3130,7 @@
     <hyperlink ref="E27" r:id="rId33" xr:uid="{0AB4E0C4-E072-0A4F-ADFD-8C9ED96C56C4}"/>
     <hyperlink ref="E28" r:id="rId34" xr:uid="{CC66DD93-4F16-A346-9639-CB723A4F5EAB}"/>
     <hyperlink ref="E29" r:id="rId35" xr:uid="{DE665102-F824-CE4C-A630-C4C4D7034EDB}"/>
+    <hyperlink ref="E30" r:id="rId36" xr:uid="{634A3153-FC32-224E-B177-95F5D0763A41}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
